--- a/test/哈哈.xlsx
+++ b/test/哈哈.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="795" windowWidth="13455" windowHeight="7590" activeTab="3"/>
+    <workbookView activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="测试数据维度" sheetId="1" r:id="rId1"/>
-    <sheet name="社团" sheetId="2" r:id="rId2"/>
-    <sheet name="律所" sheetId="3" r:id="rId3"/>
-    <sheet name="社团律所数据源" sheetId="5" r:id="rId4"/>
-    <sheet name="维度对应字段" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="数据维度" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="社团" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="律所" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="社团律所数据源" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="维度对应字段" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>企业名称</t>
   </si>
@@ -181,7 +181,7 @@
     <t>山西华润联盛能源投资有限公司</t>
   </si>
   <si>
-    <t> 广东拓斯达科技股份有限公司</t>
+    <t xml:space="preserve"> 广东拓斯达科技股份有限公司</t>
   </si>
   <si>
     <t>新三板转上市公司</t>
@@ -700,7 +700,7 @@
     <t>中国社会组织</t>
   </si>
   <si>
-    <t>http://st.chinanpo.gov.cn/search/searchOrgList.do?action=searchOrgList </t>
+    <t xml:space="preserve">http://st.chinanpo.gov.cn/search/searchOrgList.do?action=searchOrgList </t>
   </si>
   <si>
     <t>其他</t>
@@ -808,7 +808,7 @@
     <t>http://www.bjsf.gov.cn/publish/portal0/tab145/</t>
   </si>
   <si>
-    <t>http://xkyw.bjsf.gov.cn/ </t>
+    <t xml:space="preserve">http://xkyw.bjsf.gov.cn/ </t>
   </si>
   <si>
     <t>http://www.bjsf.gov.cn/publish/portal0/tab145/?type=1</t>
@@ -817,13 +817,13 @@
     <t>广州：</t>
   </si>
   <si>
-    <t>http://www.gzsfj.gov.cn/ </t>
+    <t xml:space="preserve">http://www.gzsfj.gov.cn/ </t>
   </si>
   <si>
     <t>http://credit.justice.gov.cn/</t>
   </si>
   <si>
-    <t>http://www.gzlawyer.org/ </t>
+    <t xml:space="preserve">http://www.gzlawyer.org/ </t>
   </si>
   <si>
     <t>http://www.gdlawyer.gov.cn:91/websuite/query/queryOffice1.jsp</t>
@@ -1075,87 +1075,99 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="0"/>
+  <fonts count="12">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="0"/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <u val="single"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF333333"/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="0"/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF141414"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FF141414"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1192,7 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1341,151 +1353,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="50">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="8" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="8" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="8" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="8" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle hidden="0" name="tt" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1773,20 +1808,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A65" ySplit="1"/>
+      <selection activeCell="G87" pane="bottomLeft" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="54.25" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="41" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="54.25"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="45" width="35.125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="45" width="35.875"/>
+    <col customWidth="1" max="13" min="13" style="45" width="16.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1876,666 +1915,666 @@
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18">
+      <c r="B2" s="18" t="n"/>
+      <c r="C2" s="18" t="n"/>
+      <c r="D2" s="18" t="n"/>
+      <c r="E2" s="18" t="n">
         <v>119</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18">
+      <c r="F2" s="18" t="n"/>
+      <c r="G2" s="18" t="n"/>
+      <c r="H2" s="18" t="n"/>
+      <c r="I2" s="18" t="n"/>
+      <c r="J2" s="18" t="n"/>
+      <c r="K2" s="18" t="n"/>
+      <c r="L2" s="18" t="n"/>
+      <c r="M2" s="18" t="n"/>
+      <c r="N2" s="18" t="n"/>
+      <c r="O2" s="18" t="n">
         <v>2451</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="18" t="n">
         <v>77576</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18">
+      <c r="Q2" s="18" t="n"/>
+      <c r="R2" s="18" t="n">
         <v>367</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="18" t="n">
         <v>2885</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18">
+      <c r="T2" s="18" t="n"/>
+      <c r="U2" s="18" t="n">
         <v>937</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
+      <c r="X2" s="18" t="n"/>
+      <c r="Y2" s="18" t="n"/>
+      <c r="Z2" s="18" t="n"/>
+      <c r="AA2" s="18" t="n"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18">
+      <c r="B3" s="18" t="n"/>
+      <c r="C3" s="18" t="n"/>
+      <c r="D3" s="18" t="n"/>
+      <c r="E3" s="18" t="n"/>
+      <c r="F3" s="18" t="n"/>
+      <c r="G3" s="18" t="n"/>
+      <c r="H3" s="18" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="18" t="n"/>
+      <c r="N3" s="18" t="n"/>
+      <c r="O3" s="18" t="n"/>
+      <c r="P3" s="18" t="n"/>
+      <c r="Q3" s="18" t="n"/>
+      <c r="R3" s="18" t="n"/>
+      <c r="S3" s="18" t="n"/>
+      <c r="T3" s="18" t="n"/>
+      <c r="U3" s="18" t="n"/>
+      <c r="V3" s="18" t="n"/>
+      <c r="W3" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
+      <c r="X3" s="18" t="n"/>
+      <c r="Y3" s="18" t="n"/>
+      <c r="Z3" s="18" t="n"/>
+      <c r="AA3" s="18" t="n"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18">
+      <c r="B4" s="18" t="n"/>
+      <c r="C4" s="18" t="n"/>
+      <c r="D4" s="18" t="n"/>
+      <c r="E4" s="18" t="n"/>
+      <c r="F4" s="18" t="n"/>
+      <c r="G4" s="18" t="n"/>
+      <c r="H4" s="18" t="n"/>
+      <c r="I4" s="18" t="n"/>
+      <c r="J4" s="18" t="n"/>
+      <c r="K4" s="18" t="n"/>
+      <c r="L4" s="18" t="n"/>
+      <c r="M4" s="18" t="n"/>
+      <c r="N4" s="18" t="n"/>
+      <c r="O4" s="18" t="n"/>
+      <c r="P4" s="18" t="n"/>
+      <c r="Q4" s="18" t="n"/>
+      <c r="R4" s="18" t="n"/>
+      <c r="S4" s="18" t="n"/>
+      <c r="T4" s="18" t="n"/>
+      <c r="U4" s="18" t="n"/>
+      <c r="V4" s="18" t="n"/>
+      <c r="W4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
+      <c r="X4" s="18" t="n"/>
+      <c r="Y4" s="18" t="n"/>
+      <c r="Z4" s="18" t="n"/>
+      <c r="AA4" s="18" t="n"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="18">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="18" t="n">
         <v>892</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="2">
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="2" t="n">
         <v>412</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="18" t="n">
         <v>102</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="2">
+      <c r="I5" s="18" t="n"/>
+      <c r="J5" s="18" t="n"/>
+      <c r="K5" s="18" t="n"/>
+      <c r="L5" s="18" t="n"/>
+      <c r="M5" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18">
+      <c r="N5" s="18" t="n"/>
+      <c r="O5" s="18" t="n">
         <v>1827</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="18" t="n">
         <v>6835</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="18" t="n">
         <v>136</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="18" t="n">
         <v>91</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18">
+      <c r="T5" s="18" t="n"/>
+      <c r="U5" s="18" t="n"/>
+      <c r="V5" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
+      <c r="W5" s="18" t="n"/>
+      <c r="X5" s="18" t="n"/>
+      <c r="Y5" s="18" t="n"/>
+      <c r="Z5" s="18" t="n"/>
+      <c r="AA5" s="18" t="n"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18">
+      <c r="B6" s="18" t="n"/>
+      <c r="C6" s="18" t="n"/>
+      <c r="D6" s="18" t="n"/>
+      <c r="E6" s="18" t="n"/>
+      <c r="F6" s="18" t="n"/>
+      <c r="G6" s="18" t="n"/>
+      <c r="H6" s="18" t="n"/>
+      <c r="I6" s="18" t="n">
         <v>130</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
+      <c r="J6" s="18" t="n"/>
+      <c r="K6" s="18" t="n"/>
+      <c r="L6" s="18" t="n"/>
+      <c r="M6" s="18" t="n"/>
+      <c r="N6" s="18" t="n"/>
+      <c r="O6" s="18" t="n"/>
+      <c r="P6" s="18" t="n"/>
+      <c r="Q6" s="18" t="n"/>
+      <c r="R6" s="18" t="n"/>
+      <c r="S6" s="18" t="n"/>
+      <c r="T6" s="18" t="n"/>
+      <c r="U6" s="18" t="n"/>
+      <c r="V6" s="18" t="n"/>
+      <c r="W6" s="18" t="n"/>
+      <c r="X6" s="18" t="n"/>
+      <c r="Y6" s="18" t="n"/>
+      <c r="Z6" s="18" t="n"/>
+      <c r="AA6" s="18" t="n"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="B7" s="18" t="n"/>
+      <c r="C7" s="18" t="n"/>
+      <c r="D7" s="18" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="18" t="n"/>
+      <c r="G7" s="18" t="n"/>
+      <c r="H7" s="18" t="n">
         <v>140</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18">
+      <c r="I7" s="18" t="n"/>
+      <c r="J7" s="18" t="n"/>
+      <c r="K7" s="18" t="n"/>
+      <c r="L7" s="18" t="n">
         <v>58</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
+      <c r="M7" s="18" t="n"/>
+      <c r="N7" s="18" t="n"/>
+      <c r="O7" s="18" t="n"/>
+      <c r="P7" s="18" t="n"/>
+      <c r="Q7" s="18" t="n"/>
+      <c r="R7" s="18" t="n"/>
+      <c r="S7" s="18" t="n"/>
+      <c r="T7" s="18" t="n"/>
+      <c r="U7" s="18" t="n"/>
+      <c r="V7" s="18" t="n"/>
+      <c r="W7" s="18" t="n"/>
+      <c r="X7" s="18" t="n"/>
+      <c r="Y7" s="18" t="n"/>
+      <c r="Z7" s="18" t="n"/>
+      <c r="AA7" s="18" t="n"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="B8" s="18" t="n"/>
+      <c r="C8" s="18" t="n"/>
+      <c r="D8" s="18" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="18" t="n"/>
+      <c r="G8" s="18" t="n"/>
+      <c r="H8" s="18" t="n"/>
+      <c r="I8" s="18" t="n"/>
+      <c r="J8" s="18" t="n"/>
+      <c r="K8" s="18" t="n"/>
       <c r="L8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="M8" s="18" t="n"/>
+      <c r="N8" s="18" t="n"/>
+      <c r="O8" s="18" t="n"/>
+      <c r="P8" s="18" t="n"/>
+      <c r="Q8" s="18" t="n"/>
+      <c r="R8" s="18" t="n"/>
+      <c r="S8" s="18" t="n"/>
+      <c r="T8" s="18" t="n"/>
+      <c r="U8" s="18" t="n"/>
+      <c r="V8" s="18" t="n"/>
+      <c r="W8" s="18" t="n"/>
+      <c r="X8" s="18" t="n"/>
+      <c r="Y8" s="18" t="n"/>
+      <c r="Z8" s="18" t="n"/>
+      <c r="AA8" s="18" t="n"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="2">
+      <c r="C9" s="18" t="n"/>
+      <c r="D9" s="18" t="n"/>
+      <c r="E9" s="18" t="n"/>
+      <c r="F9" s="18" t="n"/>
+      <c r="G9" s="18" t="n"/>
+      <c r="H9" s="18" t="n"/>
+      <c r="I9" s="18" t="n"/>
+      <c r="J9" s="18" t="n"/>
+      <c r="K9" s="18" t="n"/>
+      <c r="L9" s="18" t="n"/>
+      <c r="M9" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="N9" s="18" t="n"/>
+      <c r="O9" s="18" t="n"/>
+      <c r="P9" s="18" t="n"/>
+      <c r="Q9" s="18" t="n"/>
+      <c r="R9" s="18" t="n"/>
+      <c r="S9" s="18" t="n"/>
+      <c r="T9" s="18" t="n"/>
+      <c r="U9" s="18" t="n"/>
+      <c r="V9" s="18" t="n"/>
+      <c r="W9" s="18" t="n"/>
+      <c r="X9" s="18" t="n"/>
+      <c r="Y9" s="18" t="n"/>
+      <c r="Z9" s="18" t="n"/>
+      <c r="AA9" s="18" t="n"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
+      <c r="B10" s="18" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="18" t="n"/>
+      <c r="E10" s="18" t="n"/>
+      <c r="F10" s="18" t="n"/>
+      <c r="G10" s="18" t="n"/>
+      <c r="H10" s="18" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
+      <c r="K10" s="18" t="n"/>
+      <c r="L10" s="18" t="n"/>
+      <c r="M10" s="18" t="n"/>
+      <c r="N10" s="18" t="n"/>
+      <c r="O10" s="18" t="n"/>
+      <c r="P10" s="18" t="n"/>
+      <c r="Q10" s="18" t="n"/>
+      <c r="R10" s="18" t="n"/>
+      <c r="S10" s="18" t="n"/>
+      <c r="T10" s="18" t="n"/>
+      <c r="U10" s="18" t="n"/>
+      <c r="V10" s="18" t="n"/>
+      <c r="W10" s="18" t="n"/>
+      <c r="X10" s="18" t="n"/>
+      <c r="Y10" s="18" t="n"/>
+      <c r="Z10" s="18" t="n"/>
+      <c r="AA10" s="18" t="n"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18">
+      <c r="B11" s="18" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="18" t="n"/>
+      <c r="E11" s="18" t="n"/>
+      <c r="F11" s="18" t="n"/>
+      <c r="G11" s="18" t="n"/>
+      <c r="H11" s="18" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
+      <c r="K11" s="18" t="n"/>
+      <c r="L11" s="18" t="n"/>
+      <c r="M11" s="18" t="n"/>
+      <c r="N11" s="18" t="n"/>
+      <c r="O11" s="18" t="n"/>
+      <c r="P11" s="18" t="n"/>
+      <c r="Q11" s="18" t="n"/>
+      <c r="R11" s="18" t="n"/>
+      <c r="S11" s="18" t="n"/>
+      <c r="T11" s="18" t="n"/>
+      <c r="U11" s="18" t="n"/>
+      <c r="V11" s="18" t="n"/>
+      <c r="W11" s="18" t="n"/>
+      <c r="X11" s="18" t="n"/>
+      <c r="Y11" s="18" t="n"/>
+      <c r="Z11" s="18" t="n"/>
+      <c r="AA11" s="18" t="n"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18">
+      <c r="B12" s="18" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="18" t="n"/>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="18" t="n"/>
+      <c r="G12" s="18" t="n"/>
+      <c r="H12" s="18" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="18" t="n"/>
+      <c r="K12" s="18" t="n"/>
+      <c r="L12" s="18" t="n"/>
+      <c r="M12" s="18" t="n"/>
+      <c r="N12" s="18" t="n">
         <v>63</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
+      <c r="O12" s="18" t="n"/>
+      <c r="P12" s="18" t="n"/>
+      <c r="Q12" s="18" t="n"/>
+      <c r="R12" s="18" t="n"/>
+      <c r="S12" s="18" t="n"/>
+      <c r="T12" s="18" t="n"/>
+      <c r="U12" s="18" t="n"/>
+      <c r="V12" s="18" t="n"/>
+      <c r="W12" s="18" t="n"/>
+      <c r="X12" s="18" t="n"/>
+      <c r="Y12" s="18" t="n"/>
+      <c r="Z12" s="18" t="n"/>
+      <c r="AA12" s="18" t="n"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18">
+      <c r="B13" s="18" t="n"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="18" t="n"/>
+      <c r="E13" s="18" t="n"/>
+      <c r="F13" s="18" t="n"/>
+      <c r="G13" s="18" t="n"/>
+      <c r="H13" s="18" t="n"/>
+      <c r="I13" s="18" t="n"/>
+      <c r="J13" s="18" t="n"/>
+      <c r="K13" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
+      <c r="L13" s="18" t="n"/>
+      <c r="M13" s="18" t="n"/>
+      <c r="N13" s="18" t="n"/>
+      <c r="O13" s="18" t="n"/>
+      <c r="P13" s="18" t="n"/>
+      <c r="Q13" s="18" t="n"/>
+      <c r="R13" s="18" t="n"/>
+      <c r="S13" s="18" t="n"/>
+      <c r="T13" s="18" t="n"/>
+      <c r="U13" s="18" t="n"/>
+      <c r="V13" s="18" t="n"/>
+      <c r="W13" s="18" t="n"/>
+      <c r="X13" s="18" t="n"/>
+      <c r="Y13" s="18" t="n"/>
+      <c r="Z13" s="18" t="n"/>
+      <c r="AA13" s="18" t="n"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
+      <c r="B14" s="18" t="n"/>
+      <c r="C14" s="18" t="n"/>
+      <c r="D14" s="18" t="n"/>
+      <c r="E14" s="18" t="n"/>
+      <c r="F14" s="18" t="n"/>
+      <c r="G14" s="18" t="n"/>
+      <c r="H14" s="18" t="n"/>
+      <c r="I14" s="18" t="n"/>
+      <c r="J14" s="18" t="n"/>
+      <c r="K14" s="18" t="n">
         <v>40</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
+      <c r="L14" s="18" t="n"/>
+      <c r="M14" s="18" t="n"/>
+      <c r="N14" s="18" t="n"/>
+      <c r="O14" s="18" t="n"/>
+      <c r="P14" s="18" t="n"/>
+      <c r="Q14" s="18" t="n"/>
+      <c r="R14" s="18" t="n"/>
+      <c r="S14" s="18" t="n"/>
+      <c r="T14" s="18" t="n"/>
+      <c r="U14" s="18" t="n"/>
+      <c r="V14" s="18" t="n"/>
+      <c r="W14" s="18" t="n"/>
+      <c r="X14" s="18" t="n"/>
+      <c r="Y14" s="18" t="n"/>
+      <c r="Z14" s="18" t="n"/>
+      <c r="AA14" s="18" t="n"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
+      <c r="D15" s="18" t="n"/>
+      <c r="E15" s="18" t="n"/>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="18" t="n"/>
+      <c r="H15" s="18" t="n"/>
+      <c r="I15" s="18" t="n"/>
+      <c r="J15" s="18" t="n"/>
+      <c r="K15" s="18" t="n"/>
+      <c r="L15" s="18" t="n"/>
+      <c r="M15" s="18" t="n"/>
+      <c r="N15" s="18" t="n"/>
+      <c r="O15" s="18" t="n"/>
+      <c r="P15" s="18" t="n"/>
+      <c r="Q15" s="18" t="n"/>
+      <c r="R15" s="18" t="n"/>
+      <c r="S15" s="18" t="n"/>
+      <c r="T15" s="18" t="n"/>
+      <c r="U15" s="18" t="n"/>
+      <c r="V15" s="18" t="n"/>
+      <c r="W15" s="18" t="n"/>
+      <c r="X15" s="18" t="n"/>
+      <c r="Y15" s="18" t="n"/>
+      <c r="Z15" s="18" t="n"/>
+      <c r="AA15" s="18" t="n"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18">
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="18" t="n"/>
+      <c r="D16" s="18" t="n">
         <v>310</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="18" t="n"/>
+      <c r="G16" s="18" t="n"/>
+      <c r="H16" s="18" t="n"/>
+      <c r="I16" s="18" t="n"/>
+      <c r="J16" s="18" t="n"/>
+      <c r="K16" s="18" t="n"/>
+      <c r="L16" s="18" t="n"/>
+      <c r="M16" s="18" t="n"/>
+      <c r="N16" s="18" t="n"/>
+      <c r="O16" s="18" t="n"/>
+      <c r="P16" s="18" t="n"/>
+      <c r="Q16" s="18" t="n"/>
+      <c r="R16" s="18" t="n"/>
+      <c r="S16" s="18" t="n"/>
+      <c r="T16" s="18" t="n"/>
+      <c r="U16" s="18" t="n"/>
+      <c r="V16" s="18" t="n"/>
+      <c r="W16" s="18" t="n"/>
+      <c r="X16" s="18" t="n"/>
+      <c r="Y16" s="18" t="n"/>
+      <c r="Z16" s="18" t="n"/>
+      <c r="AA16" s="18" t="n"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="18" t="n"/>
+      <c r="D17" s="18" t="n"/>
+      <c r="E17" s="18" t="n"/>
+      <c r="F17" s="18" t="n"/>
+      <c r="G17" s="18" t="n"/>
+      <c r="H17" s="18" t="n"/>
+      <c r="I17" s="18" t="n"/>
+      <c r="J17" s="18" t="n"/>
+      <c r="K17" s="18" t="n"/>
+      <c r="L17" s="18" t="n"/>
       <c r="M17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
+      <c r="N17" s="18" t="n"/>
+      <c r="O17" s="18" t="n"/>
+      <c r="P17" s="18" t="n"/>
+      <c r="Q17" s="18" t="n"/>
+      <c r="R17" s="18" t="n"/>
+      <c r="S17" s="18" t="n"/>
+      <c r="T17" s="18" t="n"/>
+      <c r="U17" s="18" t="n"/>
+      <c r="V17" s="18" t="n"/>
+      <c r="W17" s="18" t="n"/>
+      <c r="X17" s="18" t="n"/>
+      <c r="Y17" s="18" t="n"/>
+      <c r="Z17" s="18" t="n"/>
+      <c r="AA17" s="18" t="n"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="29">
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="18" t="n"/>
+      <c r="D18" s="18" t="n"/>
+      <c r="E18" s="18" t="n"/>
+      <c r="F18" s="18" t="n"/>
+      <c r="G18" s="18" t="n"/>
+      <c r="H18" s="18" t="n"/>
+      <c r="I18" s="18" t="n"/>
+      <c r="J18" s="18" t="n"/>
+      <c r="K18" s="18" t="n"/>
+      <c r="L18" s="18" t="n"/>
+      <c r="M18" s="18" t="n"/>
+      <c r="N18" s="18" t="n"/>
+      <c r="O18" s="18" t="n"/>
+      <c r="P18" s="18" t="n"/>
+      <c r="Q18" s="18" t="n"/>
+      <c r="R18" s="18" t="n"/>
+      <c r="S18" s="18" t="n"/>
+      <c r="T18" s="18" t="n"/>
+      <c r="U18" s="18" t="n"/>
+      <c r="V18" s="18" t="n"/>
+      <c r="W18" s="18" t="n"/>
+      <c r="X18" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="18" t="n"/>
+      <c r="AA18" s="18" t="n"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18">
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="18" t="n"/>
+      <c r="D19" s="18" t="n"/>
+      <c r="E19" s="18" t="n"/>
+      <c r="F19" s="18" t="n"/>
+      <c r="G19" s="18" t="n"/>
+      <c r="H19" s="18" t="n"/>
+      <c r="I19" s="18" t="n"/>
+      <c r="J19" s="18" t="n"/>
+      <c r="K19" s="18" t="n"/>
+      <c r="L19" s="18" t="n"/>
+      <c r="M19" s="18" t="n"/>
+      <c r="N19" s="18" t="n"/>
+      <c r="O19" s="18" t="n"/>
+      <c r="P19" s="18" t="n"/>
+      <c r="Q19" s="18" t="n"/>
+      <c r="R19" s="18" t="n"/>
+      <c r="S19" s="18" t="n"/>
+      <c r="T19" s="18" t="n"/>
+      <c r="U19" s="18" t="n"/>
+      <c r="V19" s="18" t="n"/>
+      <c r="W19" s="18" t="n"/>
+      <c r="X19" s="18" t="n"/>
+      <c r="Y19" s="18" t="n"/>
+      <c r="Z19" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" s="18"/>
+      <c r="AA19" s="18" t="n"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18">
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="18" t="n"/>
+      <c r="D20" s="18" t="n"/>
+      <c r="E20" s="18" t="n"/>
+      <c r="F20" s="18" t="n"/>
+      <c r="G20" s="18" t="n"/>
+      <c r="H20" s="18" t="n"/>
+      <c r="I20" s="18" t="n"/>
+      <c r="J20" s="18" t="n"/>
+      <c r="K20" s="18" t="n"/>
+      <c r="L20" s="18" t="n"/>
+      <c r="M20" s="18" t="n"/>
+      <c r="N20" s="18" t="n"/>
+      <c r="O20" s="18" t="n"/>
+      <c r="P20" s="18" t="n"/>
+      <c r="Q20" s="18" t="n"/>
+      <c r="R20" s="18" t="n"/>
+      <c r="S20" s="18" t="n"/>
+      <c r="T20" s="18" t="n"/>
+      <c r="U20" s="18" t="n"/>
+      <c r="V20" s="18" t="n"/>
+      <c r="W20" s="18" t="n"/>
+      <c r="X20" s="18" t="n"/>
+      <c r="Y20" s="18" t="n"/>
+      <c r="Z20" s="18" t="n"/>
+      <c r="AA20" s="18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2543,7 +2582,7 @@
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2551,379 +2590,379 @@
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="40" customFormat="1" ht="18.95" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18.95" r="24" s="43" spans="1:27">
       <c r="A24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18">
+      <c r="D24" s="18" t="n"/>
+      <c r="E24" s="18" t="n"/>
+      <c r="F24" s="18" t="n"/>
+      <c r="G24" s="18" t="n"/>
+      <c r="H24" s="18" t="n"/>
+      <c r="I24" s="18" t="n"/>
+      <c r="J24" s="18" t="n"/>
+      <c r="K24" s="18" t="n"/>
+      <c r="L24" s="18" t="n"/>
+      <c r="M24" s="18" t="n"/>
+      <c r="N24" s="18" t="n"/>
+      <c r="O24" s="18" t="n"/>
+      <c r="P24" s="18" t="n"/>
+      <c r="Q24" s="18" t="n"/>
+      <c r="R24" s="18" t="n"/>
+      <c r="S24" s="18" t="n"/>
+      <c r="T24" s="18" t="n"/>
+      <c r="U24" s="18" t="n"/>
+      <c r="V24" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-    </row>
-    <row r="25" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="W24" s="18" t="n"/>
+      <c r="X24" s="18" t="n"/>
+      <c r="Y24" s="18" t="n"/>
+      <c r="Z24" s="18" t="n"/>
+      <c r="AA24" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="25" s="43" spans="1:27">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-    </row>
-    <row r="26" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="18" t="n"/>
+      <c r="D25" s="18" t="n"/>
+      <c r="E25" s="18" t="n"/>
+      <c r="F25" s="18" t="n"/>
+      <c r="G25" s="18" t="n"/>
+      <c r="H25" s="18" t="n"/>
+      <c r="I25" s="18" t="n"/>
+      <c r="J25" s="18" t="n"/>
+      <c r="K25" s="18" t="n"/>
+      <c r="L25" s="18" t="n"/>
+      <c r="M25" s="18" t="n"/>
+      <c r="N25" s="18" t="n"/>
+      <c r="O25" s="18" t="n"/>
+      <c r="P25" s="18" t="n"/>
+      <c r="Q25" s="18" t="n"/>
+      <c r="R25" s="18" t="n"/>
+      <c r="S25" s="18" t="n"/>
+      <c r="T25" s="18" t="n"/>
+      <c r="U25" s="18" t="n"/>
+      <c r="V25" s="18" t="n"/>
+      <c r="W25" s="18" t="n"/>
+      <c r="X25" s="18" t="n"/>
+      <c r="Y25" s="18" t="n"/>
+      <c r="Z25" s="18" t="n"/>
+      <c r="AA25" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="26" s="43" spans="1:27">
       <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-    </row>
-    <row r="27" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-    </row>
-    <row r="28" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-    </row>
-    <row r="29" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="18" t="n"/>
+      <c r="D26" s="18" t="n"/>
+      <c r="E26" s="18" t="n"/>
+      <c r="F26" s="18" t="n"/>
+      <c r="G26" s="18" t="n"/>
+      <c r="H26" s="18" t="n"/>
+      <c r="I26" s="18" t="n"/>
+      <c r="J26" s="18" t="n"/>
+      <c r="K26" s="18" t="n"/>
+      <c r="L26" s="18" t="n"/>
+      <c r="M26" s="18" t="n"/>
+      <c r="N26" s="18" t="n"/>
+      <c r="O26" s="18" t="n"/>
+      <c r="P26" s="18" t="n"/>
+      <c r="Q26" s="18" t="n"/>
+      <c r="R26" s="18" t="n"/>
+      <c r="S26" s="18" t="n"/>
+      <c r="T26" s="18" t="n"/>
+      <c r="U26" s="18" t="n"/>
+      <c r="V26" s="18" t="n"/>
+      <c r="W26" s="18" t="n"/>
+      <c r="X26" s="18" t="n"/>
+      <c r="Y26" s="18" t="n"/>
+      <c r="Z26" s="18" t="n"/>
+      <c r="AA26" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="27" s="43" spans="1:27">
+      <c r="A27" s="19" t="n"/>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="18" t="n"/>
+      <c r="D27" s="18" t="n"/>
+      <c r="E27" s="18" t="n"/>
+      <c r="F27" s="18" t="n"/>
+      <c r="G27" s="18" t="n"/>
+      <c r="H27" s="18" t="n"/>
+      <c r="I27" s="18" t="n"/>
+      <c r="J27" s="18" t="n"/>
+      <c r="K27" s="18" t="n"/>
+      <c r="L27" s="18" t="n"/>
+      <c r="M27" s="18" t="n"/>
+      <c r="N27" s="18" t="n"/>
+      <c r="O27" s="18" t="n"/>
+      <c r="P27" s="18" t="n"/>
+      <c r="Q27" s="18" t="n"/>
+      <c r="R27" s="18" t="n"/>
+      <c r="S27" s="18" t="n"/>
+      <c r="T27" s="18" t="n"/>
+      <c r="U27" s="18" t="n"/>
+      <c r="V27" s="18" t="n"/>
+      <c r="W27" s="18" t="n"/>
+      <c r="X27" s="18" t="n"/>
+      <c r="Y27" s="18" t="n"/>
+      <c r="Z27" s="18" t="n"/>
+      <c r="AA27" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="28" s="43" spans="1:27">
+      <c r="A28" s="19" t="n"/>
+      <c r="B28" s="18" t="n"/>
+      <c r="C28" s="18" t="n"/>
+      <c r="D28" s="18" t="n"/>
+      <c r="E28" s="18" t="n"/>
+      <c r="F28" s="18" t="n"/>
+      <c r="G28" s="18" t="n"/>
+      <c r="H28" s="18" t="n"/>
+      <c r="I28" s="18" t="n"/>
+      <c r="J28" s="18" t="n"/>
+      <c r="K28" s="18" t="n"/>
+      <c r="L28" s="18" t="n"/>
+      <c r="M28" s="18" t="n"/>
+      <c r="N28" s="18" t="n"/>
+      <c r="O28" s="18" t="n"/>
+      <c r="P28" s="18" t="n"/>
+      <c r="Q28" s="18" t="n"/>
+      <c r="R28" s="18" t="n"/>
+      <c r="S28" s="18" t="n"/>
+      <c r="T28" s="18" t="n"/>
+      <c r="U28" s="18" t="n"/>
+      <c r="V28" s="18" t="n"/>
+      <c r="W28" s="18" t="n"/>
+      <c r="X28" s="18" t="n"/>
+      <c r="Y28" s="18" t="n"/>
+      <c r="Z28" s="18" t="n"/>
+      <c r="AA28" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="29" s="43" spans="1:27">
       <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-    </row>
-    <row r="30" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="C29" s="18" t="n"/>
+      <c r="D29" s="18" t="n"/>
+      <c r="E29" s="18" t="n"/>
+      <c r="F29" s="18" t="n"/>
+      <c r="G29" s="18" t="n"/>
+      <c r="H29" s="18" t="n"/>
+      <c r="I29" s="18" t="n"/>
+      <c r="J29" s="18" t="n"/>
+      <c r="K29" s="18" t="n"/>
+      <c r="L29" s="18" t="n"/>
+      <c r="M29" s="18" t="n"/>
+      <c r="N29" s="18" t="n"/>
+      <c r="O29" s="18" t="n"/>
+      <c r="P29" s="18" t="n"/>
+      <c r="Q29" s="18" t="n"/>
+      <c r="R29" s="18" t="n"/>
+      <c r="S29" s="18" t="n"/>
+      <c r="T29" s="18" t="n"/>
+      <c r="U29" s="18" t="n"/>
+      <c r="V29" s="18" t="n"/>
+      <c r="W29" s="18" t="n"/>
+      <c r="X29" s="18" t="n"/>
+      <c r="Y29" s="18" t="n"/>
+      <c r="Z29" s="18" t="n"/>
+      <c r="AA29" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="30" s="43" spans="1:27">
       <c r="A30" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-    </row>
-    <row r="31" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-    </row>
-    <row r="32" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-    </row>
-    <row r="33" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-    </row>
-    <row r="34" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-    </row>
-    <row r="35" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-    </row>
-    <row r="36" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="C30" s="18" t="n"/>
+      <c r="D30" s="18" t="n"/>
+      <c r="E30" s="18" t="n"/>
+      <c r="F30" s="18" t="n"/>
+      <c r="G30" s="18" t="n"/>
+      <c r="H30" s="18" t="n"/>
+      <c r="I30" s="18" t="n"/>
+      <c r="J30" s="18" t="n"/>
+      <c r="K30" s="18" t="n"/>
+      <c r="L30" s="18" t="n"/>
+      <c r="M30" s="18" t="n"/>
+      <c r="N30" s="18" t="n"/>
+      <c r="O30" s="18" t="n"/>
+      <c r="P30" s="18" t="n"/>
+      <c r="Q30" s="18" t="n"/>
+      <c r="R30" s="18" t="n"/>
+      <c r="S30" s="18" t="n"/>
+      <c r="T30" s="18" t="n"/>
+      <c r="U30" s="18" t="n"/>
+      <c r="V30" s="18" t="n"/>
+      <c r="W30" s="18" t="n"/>
+      <c r="X30" s="18" t="n"/>
+      <c r="Y30" s="18" t="n"/>
+      <c r="Z30" s="18" t="n"/>
+      <c r="AA30" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="31" s="43" spans="1:27">
+      <c r="A31" s="18" t="n"/>
+      <c r="B31" s="18" t="n"/>
+      <c r="C31" s="18" t="n"/>
+      <c r="D31" s="18" t="n"/>
+      <c r="E31" s="18" t="n"/>
+      <c r="F31" s="18" t="n"/>
+      <c r="G31" s="18" t="n"/>
+      <c r="H31" s="18" t="n"/>
+      <c r="I31" s="18" t="n"/>
+      <c r="J31" s="18" t="n"/>
+      <c r="K31" s="18" t="n"/>
+      <c r="L31" s="18" t="n"/>
+      <c r="M31" s="18" t="n"/>
+      <c r="N31" s="18" t="n"/>
+      <c r="O31" s="18" t="n"/>
+      <c r="P31" s="18" t="n"/>
+      <c r="Q31" s="18" t="n"/>
+      <c r="R31" s="18" t="n"/>
+      <c r="S31" s="18" t="n"/>
+      <c r="T31" s="18" t="n"/>
+      <c r="U31" s="18" t="n"/>
+      <c r="V31" s="18" t="n"/>
+      <c r="W31" s="18" t="n"/>
+      <c r="X31" s="18" t="n"/>
+      <c r="Y31" s="18" t="n"/>
+      <c r="Z31" s="18" t="n"/>
+      <c r="AA31" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="32" s="43" spans="1:27">
+      <c r="A32" s="18" t="n"/>
+      <c r="B32" s="18" t="n"/>
+      <c r="C32" s="18" t="n"/>
+      <c r="D32" s="18" t="n"/>
+      <c r="E32" s="18" t="n"/>
+      <c r="F32" s="18" t="n"/>
+      <c r="G32" s="18" t="n"/>
+      <c r="H32" s="18" t="n"/>
+      <c r="I32" s="18" t="n"/>
+      <c r="J32" s="18" t="n"/>
+      <c r="K32" s="18" t="n"/>
+      <c r="L32" s="18" t="n"/>
+      <c r="M32" s="18" t="n"/>
+      <c r="N32" s="18" t="n"/>
+      <c r="O32" s="18" t="n"/>
+      <c r="P32" s="18" t="n"/>
+      <c r="Q32" s="18" t="n"/>
+      <c r="R32" s="18" t="n"/>
+      <c r="S32" s="18" t="n"/>
+      <c r="T32" s="18" t="n"/>
+      <c r="U32" s="18" t="n"/>
+      <c r="V32" s="18" t="n"/>
+      <c r="W32" s="18" t="n"/>
+      <c r="X32" s="18" t="n"/>
+      <c r="Y32" s="31" t="n"/>
+      <c r="Z32" s="21" t="n"/>
+      <c r="AA32" s="21" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="33" s="43" spans="1:27">
+      <c r="A33" s="18" t="n"/>
+      <c r="B33" s="18" t="n"/>
+      <c r="C33" s="18" t="n"/>
+      <c r="D33" s="18" t="n"/>
+      <c r="E33" s="18" t="n"/>
+      <c r="F33" s="18" t="n"/>
+      <c r="G33" s="18" t="n"/>
+      <c r="H33" s="18" t="n"/>
+      <c r="I33" s="18" t="n"/>
+      <c r="J33" s="18" t="n"/>
+      <c r="K33" s="18" t="n"/>
+      <c r="L33" s="18" t="n"/>
+      <c r="M33" s="18" t="n"/>
+      <c r="N33" s="18" t="n"/>
+      <c r="O33" s="18" t="n"/>
+      <c r="P33" s="18" t="n"/>
+      <c r="Q33" s="18" t="n"/>
+      <c r="R33" s="18" t="n"/>
+      <c r="S33" s="18" t="n"/>
+      <c r="T33" s="18" t="n"/>
+      <c r="U33" s="18" t="n"/>
+      <c r="V33" s="18" t="n"/>
+      <c r="W33" s="18" t="n"/>
+      <c r="X33" s="18" t="n"/>
+      <c r="Y33" s="32" t="n"/>
+      <c r="Z33" s="22" t="n"/>
+      <c r="AA33" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="34" s="43" spans="1:27">
+      <c r="A34" s="18" t="n"/>
+      <c r="B34" s="18" t="n"/>
+      <c r="C34" s="18" t="n"/>
+      <c r="D34" s="18" t="n"/>
+      <c r="E34" s="18" t="n"/>
+      <c r="F34" s="18" t="n"/>
+      <c r="G34" s="18" t="n"/>
+      <c r="H34" s="18" t="n"/>
+      <c r="I34" s="18" t="n"/>
+      <c r="J34" s="18" t="n"/>
+      <c r="K34" s="18" t="n"/>
+      <c r="L34" s="18" t="n"/>
+      <c r="M34" s="18" t="n"/>
+      <c r="N34" s="18" t="n"/>
+      <c r="O34" s="18" t="n"/>
+      <c r="P34" s="18" t="n"/>
+      <c r="Q34" s="18" t="n"/>
+      <c r="R34" s="18" t="n"/>
+      <c r="S34" s="18" t="n"/>
+      <c r="T34" s="18" t="n"/>
+      <c r="U34" s="18" t="n"/>
+      <c r="V34" s="18" t="n"/>
+      <c r="W34" s="18" t="n"/>
+      <c r="X34" s="18" t="n"/>
+      <c r="Y34" s="32" t="n"/>
+      <c r="Z34" s="22" t="n"/>
+      <c r="AA34" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="35" s="43" spans="1:27">
+      <c r="A35" s="18" t="n"/>
+      <c r="B35" s="18" t="n"/>
+      <c r="C35" s="18" t="n"/>
+      <c r="D35" s="18" t="n"/>
+      <c r="E35" s="18" t="n"/>
+      <c r="F35" s="18" t="n"/>
+      <c r="G35" s="18" t="n"/>
+      <c r="H35" s="18" t="n"/>
+      <c r="I35" s="18" t="n"/>
+      <c r="J35" s="18" t="n"/>
+      <c r="K35" s="18" t="n"/>
+      <c r="L35" s="18" t="n"/>
+      <c r="M35" s="18" t="n"/>
+      <c r="N35" s="18" t="n"/>
+      <c r="O35" s="18" t="n"/>
+      <c r="P35" s="18" t="n"/>
+      <c r="Q35" s="18" t="n"/>
+      <c r="R35" s="18" t="n"/>
+      <c r="S35" s="18" t="n"/>
+      <c r="T35" s="18" t="n"/>
+      <c r="U35" s="18" t="n"/>
+      <c r="V35" s="18" t="n"/>
+      <c r="W35" s="18" t="n"/>
+      <c r="X35" s="18" t="n"/>
+      <c r="Y35" s="32" t="n"/>
+      <c r="Z35" s="22" t="n"/>
+      <c r="AA35" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="36" s="43" spans="1:27">
       <c r="A36" s="37" t="s">
         <v>57</v>
       </c>
@@ -2933,32 +2972,32 @@
       <c r="C36" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-    </row>
-    <row r="37" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="D36" s="18" t="n"/>
+      <c r="E36" s="18" t="n"/>
+      <c r="F36" s="18" t="n"/>
+      <c r="G36" s="18" t="n"/>
+      <c r="H36" s="18" t="n"/>
+      <c r="I36" s="18" t="n"/>
+      <c r="J36" s="18" t="n"/>
+      <c r="K36" s="18" t="n"/>
+      <c r="L36" s="18" t="n"/>
+      <c r="M36" s="18" t="n"/>
+      <c r="N36" s="18" t="n"/>
+      <c r="O36" s="18" t="n"/>
+      <c r="P36" s="18" t="n"/>
+      <c r="Q36" s="18" t="n"/>
+      <c r="R36" s="18" t="n"/>
+      <c r="S36" s="18" t="n"/>
+      <c r="T36" s="18" t="n"/>
+      <c r="U36" s="18" t="n"/>
+      <c r="V36" s="18" t="n"/>
+      <c r="W36" s="18" t="n"/>
+      <c r="X36" s="18" t="n"/>
+      <c r="Y36" s="32" t="n"/>
+      <c r="Z36" s="22" t="n"/>
+      <c r="AA36" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="37" s="43" spans="1:27">
       <c r="A37" s="37" t="s">
         <v>60</v>
       </c>
@@ -2968,65 +3007,65 @@
       <c r="C37" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-    </row>
-    <row r="38" spans="1:27" s="40" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="34"/>
+      <c r="D37" s="18" t="n"/>
+      <c r="E37" s="18" t="n"/>
+      <c r="F37" s="18" t="n"/>
+      <c r="G37" s="18" t="n"/>
+      <c r="H37" s="18" t="n"/>
+      <c r="I37" s="18" t="n"/>
+      <c r="J37" s="18" t="n"/>
+      <c r="K37" s="18" t="n"/>
+      <c r="L37" s="18" t="n"/>
+      <c r="M37" s="18" t="n"/>
+      <c r="N37" s="18" t="n"/>
+      <c r="O37" s="18" t="n"/>
+      <c r="P37" s="18" t="n"/>
+      <c r="Q37" s="18" t="n"/>
+      <c r="R37" s="18" t="n"/>
+      <c r="S37" s="18" t="n"/>
+      <c r="T37" s="18" t="n"/>
+      <c r="U37" s="18" t="n"/>
+      <c r="V37" s="18" t="n"/>
+      <c r="W37" s="18" t="n"/>
+      <c r="X37" s="18" t="n"/>
+      <c r="Y37" s="32" t="n"/>
+      <c r="Z37" s="22" t="n"/>
+      <c r="AA37" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40.5" r="38" s="43" spans="1:27">
+      <c r="A38" s="34" t="n"/>
       <c r="B38" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-    </row>
-    <row r="39" spans="1:27" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="D38" s="18" t="n"/>
+      <c r="E38" s="18" t="n"/>
+      <c r="F38" s="18" t="n"/>
+      <c r="G38" s="18" t="n"/>
+      <c r="H38" s="18" t="n"/>
+      <c r="I38" s="18" t="n"/>
+      <c r="J38" s="18" t="n"/>
+      <c r="K38" s="18" t="n"/>
+      <c r="L38" s="18" t="n"/>
+      <c r="M38" s="18" t="n"/>
+      <c r="N38" s="18" t="n"/>
+      <c r="O38" s="18" t="n"/>
+      <c r="P38" s="18" t="n"/>
+      <c r="Q38" s="18" t="n"/>
+      <c r="R38" s="18" t="n"/>
+      <c r="S38" s="18" t="n"/>
+      <c r="T38" s="18" t="n"/>
+      <c r="U38" s="18" t="n"/>
+      <c r="V38" s="18" t="n"/>
+      <c r="W38" s="18" t="n"/>
+      <c r="X38" s="18" t="n"/>
+      <c r="Y38" s="32" t="n"/>
+      <c r="Z38" s="22" t="n"/>
+      <c r="AA38" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="39" s="43" spans="1:27">
       <c r="A39" s="37" t="s">
         <v>65</v>
       </c>
@@ -3036,32 +3075,32 @@
       <c r="C39" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-    </row>
-    <row r="40" spans="1:27" s="40" customFormat="1" ht="27" customHeight="1">
+      <c r="D39" s="18" t="n"/>
+      <c r="E39" s="18" t="n"/>
+      <c r="F39" s="18" t="n"/>
+      <c r="G39" s="18" t="n"/>
+      <c r="H39" s="18" t="n"/>
+      <c r="I39" s="18" t="n"/>
+      <c r="J39" s="18" t="n"/>
+      <c r="K39" s="18" t="n"/>
+      <c r="L39" s="18" t="n"/>
+      <c r="M39" s="18" t="n"/>
+      <c r="N39" s="18" t="n"/>
+      <c r="O39" s="18" t="n"/>
+      <c r="P39" s="18" t="n"/>
+      <c r="Q39" s="18" t="n"/>
+      <c r="R39" s="18" t="n"/>
+      <c r="S39" s="18" t="n"/>
+      <c r="T39" s="18" t="n"/>
+      <c r="U39" s="18" t="n"/>
+      <c r="V39" s="18" t="n"/>
+      <c r="W39" s="18" t="n"/>
+      <c r="X39" s="18" t="n"/>
+      <c r="Y39" s="32" t="n"/>
+      <c r="Z39" s="22" t="n"/>
+      <c r="AA39" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27" r="40" s="43" spans="1:27">
       <c r="A40" s="37" t="s">
         <v>68</v>
       </c>
@@ -3071,32 +3110,32 @@
       <c r="C40" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-    </row>
-    <row r="41" spans="1:27" ht="40.5" customHeight="1">
+      <c r="D40" s="18" t="n"/>
+      <c r="E40" s="18" t="n"/>
+      <c r="F40" s="18" t="n"/>
+      <c r="G40" s="18" t="n"/>
+      <c r="H40" s="18" t="n"/>
+      <c r="I40" s="18" t="n"/>
+      <c r="J40" s="18" t="n"/>
+      <c r="K40" s="18" t="n"/>
+      <c r="L40" s="18" t="n"/>
+      <c r="M40" s="18" t="n"/>
+      <c r="N40" s="18" t="n"/>
+      <c r="O40" s="18" t="n"/>
+      <c r="P40" s="18" t="n"/>
+      <c r="Q40" s="18" t="n"/>
+      <c r="R40" s="18" t="n"/>
+      <c r="S40" s="18" t="n"/>
+      <c r="T40" s="18" t="n"/>
+      <c r="U40" s="18" t="n"/>
+      <c r="V40" s="18" t="n"/>
+      <c r="W40" s="18" t="n"/>
+      <c r="X40" s="18" t="n"/>
+      <c r="Y40" s="32" t="n"/>
+      <c r="Z40" s="22" t="n"/>
+      <c r="AA40" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="41" s="45" spans="1:27">
       <c r="A41" s="36" t="s">
         <v>71</v>
       </c>
@@ -3120,7 +3159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -3128,7 +3167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3136,7 +3175,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -3144,7 +3183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -3155,18 +3194,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="40" customFormat="1">
-      <c r="A79" s="40" t="s">
+    <row customFormat="1" r="79" s="43" spans="1:27">
+      <c r="A79" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +3216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:27">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:27">
       <c r="A128" t="s">
         <v>92</v>
       </c>
@@ -3199,7 +3238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
         <v>97</v>
       </c>
@@ -3221,7 +3260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:27">
       <c r="A140" t="s">
         <v>102</v>
       </c>
@@ -3240,7 +3279,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:27">
       <c r="B142" t="s">
         <v>104</v>
       </c>
@@ -3248,7 +3287,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:27">
       <c r="B144" t="s">
         <v>106</v>
       </c>
@@ -3256,7 +3295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:27">
       <c r="B146" t="s">
         <v>108</v>
       </c>
@@ -3264,7 +3303,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:27">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3314,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:27">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -3286,7 +3325,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:27">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -3297,7 +3336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="157" s="45" spans="1:27">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3308,7 +3347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:27">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -3319,7 +3358,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:27">
       <c r="B160" t="s">
         <v>121</v>
       </c>
@@ -3327,12 +3366,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="1:27">
       <c r="C161" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:27">
       <c r="A192" t="s">
         <v>124</v>
       </c>
@@ -3340,7 +3379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:27">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -3348,7 +3387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:27">
       <c r="A195" t="s">
         <v>128</v>
       </c>
@@ -3356,7 +3395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:27">
       <c r="A198" t="s">
         <v>130</v>
       </c>
@@ -3365,28 +3404,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="39.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="41" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="45" width="39.125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="45" width="40.5"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="45" width="5.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="1" s="45" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>132</v>
       </c>
@@ -3410,7 +3452,7 @@
       <c r="C2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="18" t="n"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="42" t="s">
@@ -3422,17 +3464,16 @@
       <c r="C3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="18" t="n"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43"/>
       <c r="B4" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="18" t="n"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="42" t="s">
@@ -3444,17 +3485,16 @@
       <c r="C5" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="18" t="n"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="43"/>
       <c r="B6" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="18" t="n"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="42" t="s">
@@ -3466,17 +3506,16 @@
       <c r="C7" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="n"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43"/>
       <c r="B8" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="n"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
@@ -3485,17 +3524,17 @@
       <c r="B9" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="18" t="n"/>
+      <c r="D9" s="18" t="n"/>
+      <c r="E9" s="43" t="n"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="n"/>
       <c r="B10" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="18" t="n"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="42" t="s">
@@ -3507,17 +3546,16 @@
       <c r="C11" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="n"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="43"/>
       <c r="B12" s="18" t="s">
         <v>156</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="n"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18" t="s">
@@ -3526,16 +3564,16 @@
       <c r="B13" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="18" t="n"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
+      <c r="A14" s="18" t="n"/>
       <c r="B14" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="18" t="n"/>
+      <c r="D14" s="18" t="n"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="18" t="s">
@@ -3547,17 +3585,17 @@
       <c r="C15" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="18" t="n"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
+      <c r="A16" s="18" t="n"/>
       <c r="B16" s="18" t="s">
         <v>161</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="n"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
@@ -3566,16 +3604,16 @@
       <c r="B17" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="18" t="n"/>
+      <c r="D17" s="18" t="n"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
+      <c r="A18" s="18" t="n"/>
       <c r="B18" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18" t="n"/>
+      <c r="D18" s="18" t="n"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18" t="s">
@@ -3584,16 +3622,16 @@
       <c r="B19" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18" t="n"/>
+      <c r="D19" s="18" t="n"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18"/>
+      <c r="A20" s="18" t="n"/>
       <c r="B20" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="18" t="n"/>
+      <c r="D20" s="18" t="n"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18" t="s">
@@ -3602,16 +3640,16 @@
       <c r="B21" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="18" t="n"/>
+      <c r="D21" s="18" t="n"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18"/>
+      <c r="A22" s="18" t="n"/>
       <c r="B22" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="18" t="n"/>
+      <c r="D22" s="18" t="n"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="18" t="s">
@@ -3620,16 +3658,16 @@
       <c r="B23" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="18" t="n"/>
+      <c r="D23" s="18" t="n"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
+      <c r="A24" s="18" t="n"/>
       <c r="B24" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="18" t="n"/>
+      <c r="D24" s="18" t="n"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="18" t="s">
@@ -3638,16 +3676,16 @@
       <c r="B25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="18" t="n"/>
+      <c r="D25" s="18" t="n"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18"/>
+      <c r="A26" s="18" t="n"/>
       <c r="B26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="18" t="n"/>
+      <c r="D26" s="18" t="n"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="18" t="s">
@@ -3656,86 +3694,86 @@
       <c r="B27" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="18" t="n"/>
+      <c r="D27" s="18" t="n"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18"/>
+      <c r="A28" s="18" t="n"/>
       <c r="B28" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="C28" s="18" t="n"/>
+      <c r="D28" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="29" s="43" spans="1:5">
       <c r="A29" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="24" t="n"/>
       <c r="D29" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:5" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="E29" s="25" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="30" s="43" spans="1:5">
+      <c r="A30" s="23" t="n"/>
       <c r="B30" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24" t="n"/>
       <c r="D30" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:5" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="E30" s="25" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="31" s="43" spans="1:5">
       <c r="A31" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="24" t="n"/>
       <c r="D31" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:5" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="E31" s="25" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="32" s="43" spans="1:5">
+      <c r="A32" s="23" t="n"/>
       <c r="B32" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="24" t="n"/>
       <c r="D32" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="E32" s="25" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="33" s="43" spans="1:5">
+      <c r="A33" s="23" t="n"/>
       <c r="B33" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="24" t="n"/>
       <c r="D33" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:5" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="E33" s="25" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="34" s="43" spans="1:5">
       <c r="A34" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="25"/>
+      <c r="C34" s="24" t="n"/>
+      <c r="D34" s="23" t="n"/>
+      <c r="E34" s="25" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3744,26 +3782,29 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="27.625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="41" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="45" width="27.625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="45" width="40.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="1" s="45" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>132</v>
       </c>
@@ -3784,16 +3825,16 @@
       <c r="B2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="18" t="n"/>
+      <c r="D2" s="18" t="n"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
+      <c r="A3" s="18" t="n"/>
       <c r="B3" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="18" t="n"/>
+      <c r="D3" s="18" t="n"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
@@ -3805,17 +3846,17 @@
       <c r="C4" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="18" t="n"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
+      <c r="A5" s="18" t="n"/>
       <c r="B5" s="18" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="18" t="n"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
@@ -3827,17 +3868,17 @@
       <c r="C6" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="18" t="n"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
+      <c r="A7" s="18" t="n"/>
       <c r="B7" s="18" t="s">
         <v>192</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="n"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
@@ -3849,19 +3890,19 @@
       <c r="C8" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="18" t="n"/>
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="43" t="n"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18" t="n"/>
       <c r="B9" s="18" t="s">
         <v>196</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="n"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="42" t="s">
@@ -3873,17 +3914,16 @@
       <c r="C10" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="18" t="n"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="43"/>
       <c r="B11" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="n"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
@@ -3895,7 +3935,7 @@
       <c r="C12" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="n"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
@@ -3907,7 +3947,7 @@
       <c r="C13" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="n"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
@@ -3919,17 +3959,17 @@
       <c r="C14" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="n"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
+      <c r="A15" s="18" t="n"/>
       <c r="B15" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="18" t="n"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
@@ -3938,16 +3978,16 @@
       <c r="B16" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="18" t="n"/>
+      <c r="D16" s="18" t="n"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
+      <c r="A17" s="18" t="n"/>
       <c r="B17" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="18" t="n"/>
+      <c r="D17" s="18" t="n"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
@@ -3956,16 +3996,16 @@
       <c r="B18" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18" t="n"/>
+      <c r="D18" s="18" t="n"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
+      <c r="A19" s="18" t="n"/>
       <c r="B19" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18" t="n"/>
+      <c r="D19" s="18" t="n"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
@@ -3974,16 +4014,16 @@
       <c r="B20" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="18" t="n"/>
+      <c r="D20" s="18" t="n"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
+      <c r="A21" s="18" t="n"/>
       <c r="B21" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="18" t="n"/>
+      <c r="D21" s="18" t="n"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
@@ -3992,16 +4032,16 @@
       <c r="B22" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="18" t="n"/>
+      <c r="D22" s="18" t="n"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
+      <c r="A23" s="18" t="n"/>
       <c r="B23" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="18" t="n"/>
+      <c r="D23" s="18" t="n"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
@@ -4010,78 +4050,81 @@
       <c r="B24" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="18" t="n"/>
+      <c r="D24" s="18" t="n"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
+      <c r="A25" s="18" t="n"/>
       <c r="B25" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" s="40" customFormat="1" ht="15.95" customHeight="1">
+      <c r="C25" s="18" t="n"/>
+      <c r="D25" s="18" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="26" s="43" spans="1:6">
       <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="24" t="n"/>
       <c r="D26" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="E26" s="25" t="n"/>
+      <c r="F26" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="27" s="43" spans="1:6">
+      <c r="A27" s="23" t="n"/>
       <c r="B27" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" s="40" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="C27" s="24" t="n"/>
+      <c r="D27" s="23" t="n"/>
+      <c r="E27" s="25" t="n"/>
+      <c r="F27" s="22" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.95" r="28" s="43" spans="1:6">
+      <c r="A28" s="23" t="n"/>
       <c r="B28" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
+      <c r="C28" s="24" t="n"/>
+      <c r="D28" s="23" t="n"/>
+      <c r="E28" s="25" t="n"/>
+      <c r="F28" s="22" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="41" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="137.75" style="41" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="107.125" style="41" bestFit="1" customWidth="1"/>
+    <col customWidth="1" hidden="1" max="1" min="1" style="45" width="17.25"/>
+    <col customWidth="1" hidden="1" max="2" min="2" style="45" width="137.75"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="45" width="10.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="45" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="45" width="107.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="80" r="1" s="45" spans="1:7">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -4101,17 +4144,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row customHeight="1" ht="13.5" r="2" s="45" spans="1:7">
       <c r="A2" t="s">
         <v>224</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="49" t="s">
         <v>226</v>
       </c>
       <c r="E2" s="42" t="s">
@@ -4120,7 +4163,7 @@
       <c r="F2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="18" t="n"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -4129,13 +4172,10 @@
       <c r="B3" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
       <c r="F3" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="18" t="n"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -4144,7 +4184,7 @@
       <c r="B4" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -4156,7 +4196,7 @@
       <c r="F4" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="18" t="n"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4165,10 +4205,10 @@
       <c r="B5" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="46" t="s">
         <v>236</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -4177,7 +4217,7 @@
       <c r="F5" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18" t="n"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4186,7 +4226,7 @@
       <c r="B6" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -4198,7 +4238,7 @@
       <c r="F6" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="18" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4207,7 +4247,7 @@
       <c r="B7" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -4219,7 +4259,7 @@
       <c r="F7" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4228,15 +4268,13 @@
       <c r="B8" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
       <c r="E8" s="18" t="s">
         <v>247</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -4245,18 +4283,16 @@
       <c r="B9" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
       <c r="E9" s="18" t="s">
         <v>250</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="n"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4268,10 +4304,10 @@
       <c r="F10" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="n"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -4283,10 +4319,10 @@
       <c r="F11" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18" t="n"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -4298,15 +4334,15 @@
       <c r="F12" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18" t="n"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A14" s="45" t="s">
+    <row customHeight="1" ht="14.25" r="14" s="45" spans="1:7">
+      <c r="A14" s="44" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4329,11 +4365,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="44"/>
       <c r="B15" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -4345,16 +4380,16 @@
       <c r="F15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18" t="n"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>263</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -4366,14 +4401,13 @@
       <c r="F16" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18" t="n"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="44"/>
       <c r="B17" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -4385,7 +4419,7 @@
       <c r="F17" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18" t="n"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -4394,15 +4428,13 @@
       <c r="B18" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
       <c r="E18" s="18" t="s">
         <v>247</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="18" t="n"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -4411,15 +4443,13 @@
       <c r="B19" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
       <c r="E19" s="18" t="s">
         <v>250</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18" t="n"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -4428,7 +4458,7 @@
       <c r="B20" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="18" t="s">
@@ -4440,7 +4470,7 @@
       <c r="F20" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="18" t="n"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -4449,7 +4479,7 @@
       <c r="B21" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -4461,16 +4491,16 @@
       <c r="F21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="18" t="n"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>280</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -4482,14 +4512,13 @@
       <c r="F22" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="18" t="n"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="44"/>
       <c r="B23" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -4501,7 +4530,7 @@
       <c r="F23" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="18" t="n"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -4510,7 +4539,7 @@
       <c r="B24" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -4533,7 +4562,7 @@
       <c r="B25" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -4545,13 +4574,13 @@
       <c r="F25" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18" t="n"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -4563,22 +4592,21 @@
       <c r="F26" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="18" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
@@ -4600,11 +4628,11 @@
     <hyperlink ref="F11" r:id="rId18"/>
     <hyperlink ref="F12" r:id="rId19"/>
     <hyperlink ref="B14" r:id="rId20"/>
-    <hyperlink ref="B15" r:id="rId21" display="http://xkyw.bjsf.gov.cn/"/>
+    <hyperlink display="http://xkyw.bjsf.gov.cn/" ref="B15" r:id="rId21"/>
     <hyperlink ref="F15" r:id="rId22"/>
-    <hyperlink ref="B16" r:id="rId23" display="http://www.gzsfj.gov.cn/"/>
+    <hyperlink display="http://www.gzsfj.gov.cn/" ref="B16" r:id="rId23"/>
     <hyperlink ref="F16" r:id="rId24"/>
-    <hyperlink ref="B17" r:id="rId25" display="http://www.gzlawyer.org/"/>
+    <hyperlink display="http://www.gzlawyer.org/" ref="B17" r:id="rId25"/>
     <hyperlink ref="F17" r:id="rId26"/>
     <hyperlink ref="B18" r:id="rId27"/>
     <hyperlink ref="F18" r:id="rId28"/>
@@ -4625,30 +4653,34 @@
     <hyperlink ref="B26" r:id="rId43"/>
     <hyperlink ref="F26" r:id="rId44"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="13.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="10" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>297</v>
       </c>
@@ -4656,7 +4688,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -4664,42 +4696,42 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -4778,29 +4810,32 @@
       <c r="A31" t="s">
         <v>323</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="41" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="23.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="45" width="29.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4812,24 +4847,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="42.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="41" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="41" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="42.125"/>
+    <col customWidth="1" max="2" min="2" style="45" width="33.25"/>
+    <col customWidth="1" max="3" min="3" style="45" width="18.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4865,7 +4903,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="54" customHeight="1">
+    <row customHeight="1" ht="54" r="4" s="45" spans="1:3">
       <c r="A4" t="s">
         <v>332</v>
       </c>
@@ -4884,7 +4922,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="6" s="45" spans="1:3">
       <c r="A6" t="s">
         <v>335</v>
       </c>
@@ -4895,7 +4933,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="7" s="45" spans="1:3">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -4928,7 +4966,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="10" s="45" spans="1:3">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -4939,7 +4977,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="81" customHeight="1">
+    <row customHeight="1" ht="81" r="11" s="45" spans="1:3">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -4948,7 +4986,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>